--- a/gearbag_output.xlsx
+++ b/gearbag_output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>p atk</t>
   </si>
@@ -47,13 +47,10 @@
     <t>weapon</t>
   </si>
   <si>
-    <t>atk</t>
-  </si>
-  <si>
     <t>helmet</t>
   </si>
   <si>
-    <t>life</t>
+    <t>spd</t>
   </si>
   <si>
     <t>chest</t>
@@ -65,10 +62,10 @@
     <t>ring</t>
   </si>
   <si>
+    <t>crit</t>
+  </si>
+  <si>
     <t>boot</t>
-  </si>
-  <si>
-    <t>spd</t>
   </si>
   <si>
     <t>total:</t>
@@ -162,22 +159,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -186,10 +183,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -197,37 +194,37 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -235,7 +232,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -244,28 +241,28 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>8.0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -273,37 +270,37 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="E5" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
         <v>4.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -311,37 +308,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
       <c r="K6" t="n">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -352,34 +349,34 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -387,36 +384,36 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>174.0</v>
+        <v>21.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="D8" t="n">
-        <v>65.0</v>
+        <v>49.0</v>
       </c>
       <c r="E8" t="n">
-        <v>64.0</v>
+        <v>20.0</v>
       </c>
       <c r="F8" t="n">
-        <v>130.0</v>
+        <v>14.0</v>
       </c>
       <c r="G8" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/gearbag_output.xlsx
+++ b/gearbag_output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>p atk</t>
   </si>
@@ -42,6 +42,57 @@
   </si>
   <si>
     <t>pk</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>rage</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>crit</t>
   </si>
 </sst>
 </file>
@@ -86,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,6 +175,1578 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/gearbag_output.xlsx
+++ b/gearbag_output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="36">
   <si>
     <t>p atk</t>
   </si>
@@ -42,6 +42,84 @@
   </si>
   <si>
     <t>pk</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>rage</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>effres</t>
+  </si>
+  <si>
+    <t>A.Ras</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>S.Angelica</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>Kayron</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>Sigret</t>
+  </si>
+  <si>
+    <t>Alencia</t>
+  </si>
+  <si>
+    <t>Roana</t>
   </si>
 </sst>
 </file>
@@ -86,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,6 +202,2225 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18446.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1232.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10827.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3618.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>896.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9600.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4484.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10626.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3313.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1044.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11205.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1432.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1461.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>24825.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1221.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22641.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
